--- a/data/networksimulator.xlsx
+++ b/data/networksimulator.xlsx
@@ -1,85 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B208C-4DA8-4819-91AA-F1311A5E5225}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="900" windowWidth="19530" windowHeight="12840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20865" windowHeight="8340" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="管段数据" sheetId="1" r:id="rId1"/>
     <sheet name="节点数据" sheetId="2" r:id="rId2"/>
     <sheet name="气体组分" sheetId="3" r:id="rId3"/>
+    <sheet name="产量数据" sheetId="10" r:id="rId4"/>
+    <sheet name="井口对应表" sheetId="6" r:id="rId5"/>
+    <sheet name="引射器" sheetId="9" r:id="rId6"/>
+    <sheet name="测试表" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tanyao</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tanyao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+中间节点无载荷，集气站和井口有载荷</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>管段编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>起点编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>终点编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>管段长度(m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>管段内径(m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>粗糙度(m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>节点编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>节点海拔(m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点载荷(Nm³/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点压力(MPa)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点是否有载荷</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(MPa)</t>
+    </r>
+  </si>
+  <si>
+    <t>节点压力是否已知</t>
   </si>
   <si>
     <t>组分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>摩尔百分比(%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C1</t>
@@ -110,50 +138,443 @@
   </si>
   <si>
     <t>CO2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       井口
+压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(MPa)</t>
+    </r>
+  </si>
+  <si>
+    <t>LX-101</t>
+  </si>
+  <si>
+    <t>LX-102</t>
+  </si>
+  <si>
+    <t>LX-103</t>
+  </si>
+  <si>
+    <t>LX-104</t>
+  </si>
+  <si>
+    <t>LX-105</t>
+  </si>
+  <si>
+    <t>对应井口</t>
+  </si>
+  <si>
+    <t>集气站</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -161,30 +582,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -233,7 +958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -268,7 +993,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -442,31 +1167,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="10.7142857142857" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="32.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -503,10 +1222,10 @@
         <v>0.1</v>
       </c>
       <c r="F2" s="2">
-        <v>4.57E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.57e-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -523,10 +1242,10 @@
         <v>0.1</v>
       </c>
       <c r="F3" s="2">
-        <v>4.57E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.57e-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -543,10 +1262,10 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="2">
-        <v>4.57E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.57e-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -563,10 +1282,10 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="2">
-        <v>4.57E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.57e-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -583,10 +1302,10 @@
         <v>0.1</v>
       </c>
       <c r="F6" s="2">
-        <v>4.57E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.57e-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -603,10 +1322,10 @@
         <v>0.1</v>
       </c>
       <c r="F7" s="2">
-        <v>4.57E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.57e-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -623,10 +1342,10 @@
         <v>0.1</v>
       </c>
       <c r="F8" s="2">
-        <v>4.57E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.57e-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -643,253 +1362,225 @@
         <v>0.1</v>
       </c>
       <c r="F9" s="2">
-        <v>4.57E-5</v>
+        <v>4.57e-5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A3C42A-5492-4BF9-8F3F-8DB94F96D00E}">
-  <dimension ref="A1:T10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="10.7142857142857" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="49.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>12354</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>-54</v>
       </c>
       <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>8964</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>2354</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
-        <v>3698</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <v>8889</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FC5ADA-E7A4-4B70-836A-58914051329E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="10.7142857142857" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" ht="33" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -897,7 +1588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -905,7 +1596,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -913,7 +1604,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -921,7 +1612,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -929,7 +1620,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -937,7 +1628,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -945,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -953,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -961,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -969,7 +1660,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -978,8 +1669,336 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="48.75" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:6">
+      <c r="A3" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4355.6558571537</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2192.04195884507</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1963.14532922038</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3055.75206332314</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2641.30461974611</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:6">
+      <c r="A4" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7865.65560518547</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3943.27465801086</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3542.64475715276</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5477.27261509781</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4691.57309512455</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:6">
+      <c r="A5" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>11505.6584951771</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5763.2764256914</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5214.80684024233</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8057.10506421561</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6870.25409696705</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:6">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>13065.6573773985</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6547.04107852077</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5882.64629696113</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9108.60631890345</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7873.46836854982</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:6">
+      <c r="A7" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>18105.6578349569</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9093.37611683624</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8132.21466261059</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12680.7522750526</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10835.5742338281</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:6">
+      <c r="A8" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>19834.2649744813</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9942.04624285971</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8917.17383193376</v>
+      </c>
+      <c r="E8" s="4">
+        <v>13937.6241541363</v>
+      </c>
+      <c r="F8" s="4">
+        <v>11977.1675751959</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:6">
+      <c r="A9" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>19934.2642206101</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9981.34500446413</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8994.27204529406</v>
+      </c>
+      <c r="E9" s="4">
+        <v>13945.601632793</v>
+      </c>
+      <c r="F9" s="4">
+        <v>12007.3063228535</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:6">
+      <c r="A10" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20065.6566934343</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10014.2138608843</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9032.64515526515</v>
+      </c>
+      <c r="E10" s="4">
+        <v>14008.606001291</v>
+      </c>
+      <c r="F10" s="4">
+        <v>12008.6088310586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="10.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:2">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:2">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:2">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:2">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:2">
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/networksimulator.xlsx
+++ b/data/networksimulator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20865" windowHeight="8340" activeTab="6"/>
+    <workbookView windowWidth="27915" windowHeight="12600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="管段数据" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="气体组分" sheetId="3" r:id="rId3"/>
     <sheet name="产量数据" sheetId="10" r:id="rId4"/>
     <sheet name="井口对应表" sheetId="6" r:id="rId5"/>
-    <sheet name="引射器" sheetId="9" r:id="rId6"/>
+    <sheet name="引射器方案1" sheetId="9" r:id="rId6"/>
     <sheet name="测试表" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -32,7 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>tanyao:</t>
         </r>
@@ -40,7 +40,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 中间节点无载荷，集气站和井口有载荷</t>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>管段编号</t>
   </si>
@@ -144,11 +144,38 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">       井口
-压力</t>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>井口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压力</t>
     </r>
     <r>
       <rPr>
@@ -161,6 +188,67 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LX-101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LX-102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LX-103</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LX-104</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LX-105</t>
+    </r>
+  </si>
+  <si>
+    <t>对应井口</t>
+  </si>
+  <si>
+    <t>集气站</t>
+  </si>
+  <si>
     <t>LX-101</t>
   </si>
   <si>
@@ -176,10 +264,124 @@
     <t>LX-105</t>
   </si>
   <si>
-    <t>对应井口</t>
-  </si>
-  <si>
-    <t>集气站</t>
+    <t>引射器编号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上游节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上游节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>能量效率</t>
   </si>
 </sst>
 </file>
@@ -187,12 +389,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +405,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -236,6 +444,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,8 +470,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,9 +533,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,106 +577,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -395,181 +603,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,33 +813,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,22 +822,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,155 +856,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -851,7 +1059,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,7 +1387,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -1186,22 +1397,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1378,7 +1589,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1388,19 +1599,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="49.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1415,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1581,10 +1792,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1681,211 +1892,212 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="6" width="11.1142857142857"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>3.8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>3.6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>4355.6558571537</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>2192.04195884507</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>1963.14532922038</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>3055.75206332314</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>2641.30461974611</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3.4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>7865.65560518547</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>3943.27465801086</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>3542.64475715276</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>5477.27261509781</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>4691.57309512455</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3.2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>11505.6584951771</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>5763.2764256914</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>5214.80684024233</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>8057.10506421561</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>6870.25409696705</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>13065.6573773985</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>6547.04107852077</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>5882.64629696113</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>9108.60631890345</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>7873.46836854982</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>2.8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>18105.6578349569</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>9093.37611683624</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>8132.21466261059</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>12680.7522750526</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>10835.5742338281</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>2.6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>19834.2649744813</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>9942.04624285971</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>8917.17383193376</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>13937.6241541363</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>11977.1675751959</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>2.4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>19934.2642206101</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>9981.34500446413</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>8994.27204529406</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>13945.601632793</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>12007.3063228535</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>2.2</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>20065.6566934343</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>10014.2138608843</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>9032.64515526515</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>14008.606001291</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>12008.6088310586</v>
       </c>
     </row>
@@ -1901,7 +2113,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1910,10 +2122,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1921,7 +2133,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1929,40 +2141,40 @@
       <c r="A3" s="2">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:2">
       <c r="A4" s="2">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:2">
       <c r="A5" s="2">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:2">
       <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:2">
       <c r="A7" s="2">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1974,14 +2186,49 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="33" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1992,8 +2239,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5"/>
